--- a/data/income_statement/2digits/size/68_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/68_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>68-Real estate activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>68-Real estate activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2685554.49445</v>
+        <v>1998546.53372</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2305006.84797</v>
+        <v>1472524.16572</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3574031.33872</v>
+        <v>2519919.26751</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4175320.60528</v>
+        <v>2997144.78771</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5019138.086139999</v>
+        <v>3151675.32551</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6691966.70183</v>
+        <v>4816699.67217</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6750217.877069999</v>
+        <v>5355839.56079</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9405496.57949</v>
+        <v>6825309.325530001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>12073183.15385</v>
+        <v>9121317.5561</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15328004.97104</v>
+        <v>8247664.3786</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>18901673.76064</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12540089.64105</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14613036.116</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2558466.78005</v>
+        <v>1948786.62834</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2130209.57676</v>
+        <v>1393845.20959</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3298214.36551</v>
+        <v>2355290.0098</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3923102.92821</v>
+        <v>2858455.24519</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4620296.61974</v>
+        <v>2919460.93077</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6240408.13955</v>
+        <v>4559943.39635</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6444892.860859999</v>
+        <v>5150910.88677</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>8948884.310249999</v>
+        <v>6545940.480420001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>11332054.1477</v>
+        <v>8613245.85837</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>14680145.93895</v>
+        <v>7950756.3894</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>18126431.6304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12175338.75923</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14312362.555</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1116.65143</v>
+        <v>795.14504</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>569.2498600000001</v>
+        <v>257.63508</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>51508.90155</v>
+        <v>16294.75525</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>44808.84022000001</v>
+        <v>44592.68983</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>108125.93187</v>
+        <v>41196.59845</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>61463.61904999999</v>
+        <v>60517.06091000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>83267.27486</v>
+        <v>72942.15343000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>32951.8167</v>
+        <v>11768.07762</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>121684.17398</v>
+        <v>98101.19286</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>80054.12916</v>
+        <v>1213.98966</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>130956.90623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5.00013</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>125971.06297</v>
+        <v>48964.76033999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>174228.02135</v>
+        <v>78421.32105000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>224308.07166</v>
+        <v>148334.50246</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>207408.83685</v>
+        <v>94096.85269</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>290715.53453</v>
+        <v>191017.79629</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>390094.94323</v>
+        <v>196239.21491</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>222057.74135</v>
+        <v>131986.52059</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>423660.45254</v>
+        <v>267600.76749</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>619444.8321700001</v>
+        <v>409970.50487</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>567804.9029300001</v>
+        <v>295693.99954</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>644285.22401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>364745.88169</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>300673.561</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>44047.52748999999</v>
+        <v>25097.38727</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>42728.46654</v>
+        <v>23131.81637</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>60761.77454999999</v>
+        <v>38372.69643</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>64980.04962999999</v>
+        <v>31250.3296</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>63166.47274</v>
+        <v>34482.70546</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>100696.32243</v>
+        <v>57156.38186</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>168746.65297</v>
+        <v>99677.44147000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>272006.64013</v>
+        <v>186773.20274</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>422619.84568</v>
+        <v>291617.15232</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>694672.0922999999</v>
+        <v>246260.12321</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>832431.75872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>398631.83332</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>913316.827</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>27353.84803</v>
+        <v>13584.69258</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>26895.74459</v>
+        <v>14683.02102</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>26853.22629</v>
+        <v>13320.55252</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>30723.58103</v>
+        <v>16370.40659</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>34196.84283</v>
+        <v>18017.96806</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>52560.90658</v>
+        <v>32791.62972</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>93590.85424000002</v>
+        <v>62282.79436000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>178451.2367</v>
+        <v>129984.59418</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>218047.24267</v>
+        <v>135065.86021</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>424476.4252000001</v>
+        <v>103165.18344</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>420094.23787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>195647.13066</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>385572.361</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>15158.09171</v>
+        <v>10426.02092</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>12022.07844</v>
+        <v>6799.057400000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>14421.77425</v>
+        <v>8629.005929999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>16280.26029</v>
+        <v>11228.54343</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>25572.15388</v>
+        <v>9939.313789999998</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>40859.14891</v>
+        <v>18674.77584</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>70528.69439</v>
+        <v>29595.02435</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>76171.19224999999</v>
+        <v>40445.19523</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>182544.32418</v>
+        <v>136154.57426</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>237204.81456</v>
+        <v>115936.90558</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>364063.7289599999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>160594.46392</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>471496.88</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1535.58775</v>
+        <v>1086.67377</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>3810.64351</v>
+        <v>1649.73795</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>19486.77401</v>
+        <v>16423.13798</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>17976.20831</v>
+        <v>3651.37958</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3397.47603</v>
+        <v>6525.42361</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7276.26694</v>
+        <v>5689.9763</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4627.104340000001</v>
+        <v>7799.62276</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>17384.21118</v>
+        <v>16343.41333</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>22028.27883</v>
+        <v>20396.71785</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>32990.85254</v>
+        <v>27158.03419</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>48273.79189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>42390.23874</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>56247.586</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2641506.96696</v>
+        <v>1973449.14645</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2262278.381430001</v>
+        <v>1449392.34935</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3513269.56417</v>
+        <v>2481546.57108</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4110340.55565</v>
+        <v>2965894.45811</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4955971.613399999</v>
+        <v>3117192.62005</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6591270.3794</v>
+        <v>4759543.290309999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6581471.224099999</v>
+        <v>5256162.11932</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9133489.93936</v>
+        <v>6638536.12279</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>11650563.30817</v>
+        <v>8829700.40378</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14633332.87874</v>
+        <v>8001404.255390001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>18069242.00192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12141457.80773</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>13699719.289</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1436890.73107</v>
+        <v>1078283.01049</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1002560.07291</v>
+        <v>619626.1328399999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1609643.62704</v>
+        <v>1076614.42727</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1851806.77958</v>
+        <v>1315799.84214</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2135618.63001</v>
+        <v>1352756.0567</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3024673.49473</v>
+        <v>2328683.41746</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2896903.46671</v>
+        <v>2545627.53755</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4219076.269269999</v>
+        <v>3207794.778859999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5699545.78199</v>
+        <v>4427611.165399999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7602089.3562</v>
+        <v>4870235.401260001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9642836.77234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7238622.52808</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>8529181.346999999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>313485.12011</v>
+        <v>282163.23135</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>25952.39236</v>
+        <v>0</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>139473.49046</v>
+        <v>95396.40329</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>198263.28674</v>
+        <v>180977.3082</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>187317.78419</v>
+        <v>181835.96056</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>551157.96312</v>
+        <v>501581.07301</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>140342.75814</v>
+        <v>127564.96483</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>526944.8266199999</v>
+        <v>456122.13835</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>559160.92544</v>
+        <v>427035.3559199999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>770138.8819299999</v>
+        <v>424027.10399</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1213042.37014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1160991.22114</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>515512.647</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>155870.47763</v>
+        <v>116946.38615</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>119609.04651</v>
+        <v>69178.25109000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>170532.06484</v>
+        <v>30067.83676</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>315973.84419</v>
+        <v>213331.59314</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>354420.24771</v>
+        <v>283211.95667</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>443667.2492899999</v>
+        <v>379990.7814099999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>767489.61598</v>
+        <v>957837.4743400001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>833678.29954</v>
+        <v>678955.7724400001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>931338.27734</v>
+        <v>735245.36164</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1378818.85554</v>
+        <v>1109031.45494</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1211603.07685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>894025.8117000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1601456.147</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>966778.61959</v>
+        <v>678990.92403</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>844446.0406500001</v>
+        <v>550414.4457200001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1296256.03082</v>
+        <v>950948.1521199999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1332122.87452</v>
+        <v>920773.4684199999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1591123.11648</v>
+        <v>887703.78079</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1899170.59405</v>
+        <v>1355857.96716</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1970054.77661</v>
+        <v>1458539.09262</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2818875.161979999</v>
+        <v>2070020.37882</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4177691.21076</v>
+        <v>3261501.67738</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5442826.249049999</v>
+        <v>3336796.88508</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7204698.38907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5176094.50532</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6407014.692</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>756.51374</v>
+        <v>182.46896</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>12552.59339</v>
+        <v>33.43603</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3382.04092</v>
+        <v>202.0351</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5446.77413</v>
+        <v>717.47238</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2757.48163</v>
+        <v>4.358680000000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>130677.68827</v>
+        <v>91253.59587999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>19016.31598</v>
+        <v>1686.00576</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>39577.98112999999</v>
+        <v>2696.48925</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>31355.36845</v>
+        <v>3828.77046</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>10305.36968</v>
+        <v>379.95725</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>13492.93628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7510.98992</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5197.861</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1204616.23589</v>
+        <v>895166.13596</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1259718.30852</v>
+        <v>829766.2165099999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1903625.93713</v>
+        <v>1404932.14381</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2258533.77607</v>
+        <v>1650094.61597</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2820352.98339</v>
+        <v>1764436.56335</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3566596.88467</v>
+        <v>2430859.87285</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3684567.75739</v>
+        <v>2710534.58177</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4914413.67009</v>
+        <v>3430741.34393</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>5951017.52618</v>
+        <v>4402089.238379999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7031243.52254</v>
+        <v>3131168.85413</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8426405.22958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4902835.27965</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5170537.942</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>619407.7346199999</v>
+        <v>344505.5634</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>635776.67469</v>
+        <v>293909.58561</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>866119.27098</v>
+        <v>475206.24092</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1049960.808</v>
+        <v>562072.1533599999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1155653.63524</v>
+        <v>553333.29313</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1294803.31066</v>
+        <v>673540.12083</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1390237.96331</v>
+        <v>845646.94748</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1990908.22018</v>
+        <v>1114405.71391</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2162265.6743</v>
+        <v>1278836.8938</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2550727.84946</v>
+        <v>1043720.03401</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2870474.06432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1553511.8098</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1582703.912</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1580,511 +1566,576 @@
         <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>415.56737</v>
+        <v>0</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>21844.69783</v>
+        <v>0</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2318.38696</v>
+        <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>522.50491</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>11691.23195</v>
+        <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>1085.53492</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>11599.61588</v>
+        <v>11369.19084</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>19361.93497</v>
+        <v>0</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>50672.3339</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>83400.70938</v>
+        <v>59934.62781000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>57714.45728</v>
+        <v>24209.69271</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>87269.73612999999</v>
+        <v>29977.29582</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>137172.7174</v>
+        <v>85620.94300000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>152360.41467</v>
+        <v>74370.68457000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>157396.50542</v>
+        <v>108309.20585</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>180622.01976</v>
+        <v>149226.07064</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>291524.76863</v>
+        <v>228005.17623</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>362351.04051</v>
+        <v>258041.72464</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>406831.39708</v>
+        <v>289273.6046799999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>621501.7056399999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>526974.9811100001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>596168.339</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>536007.02524</v>
+        <v>284570.93559</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>578062.21741</v>
+        <v>269699.8929</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>778433.96748</v>
+        <v>445228.9451</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>890943.39277</v>
+        <v>476451.21036</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1000974.83361</v>
+        <v>478962.60856</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1136884.30033</v>
+        <v>565230.91498</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1197924.7116</v>
+        <v>696420.87684</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1698297.91663</v>
+        <v>885315.0027599999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1788315.01791</v>
+        <v>1009425.97832</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2124534.51741</v>
+        <v>754446.42933</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2198300.02478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>975864.4947899999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>986535.573</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>585208.50127</v>
+        <v>550660.57256</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>623941.6338300001</v>
+        <v>535856.6309</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1037506.66615</v>
+        <v>929725.90289</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1208572.96807</v>
+        <v>1088022.46261</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1664699.34815</v>
+        <v>1211103.27022</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2271793.57401</v>
+        <v>1757319.75202</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2294329.79408</v>
+        <v>1864887.63429</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2923505.44991</v>
+        <v>2316335.63002</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3788751.85188</v>
+        <v>3123252.34458</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4480515.67308</v>
+        <v>2087448.82012</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5555931.165260001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3349323.46985</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3587834.03</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1233808.20765</v>
+        <v>898734.8042299999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1186492.27153</v>
+        <v>717996.2102</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1369337.37098</v>
+        <v>664141.75263</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1458183.7691</v>
+        <v>848521.1676700001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2266051.52308</v>
+        <v>842578.4039200001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2735172.24226</v>
+        <v>1520516.15887</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3765294.90371</v>
+        <v>2168064.8977</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4229776.006019999</v>
+        <v>1869561.54539</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4843763.769309999</v>
+        <v>2981495.22449</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14744801.68347</v>
+        <v>4467855.78974</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>13401475.83506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7871071.248450001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>9531276.165999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4388.2731</v>
+        <v>218.93771</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4511.06696</v>
+        <v>552.83162</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>6623.04913</v>
+        <v>2376.91445</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>17230.93026</v>
+        <v>1899.25634</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>50805.90141000001</v>
+        <v>2239.45442</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>38977.93478</v>
+        <v>4445.719139999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>37175.41168</v>
+        <v>9682.519209999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>225734.6102</v>
+        <v>7320.043799999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>156765.80064</v>
+        <v>23598.90131</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>251666.98197</v>
+        <v>10333.66856</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>247399.76642</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>26290.28268</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>5125.882</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>5630.00659</v>
+        <v>234.49848</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>32010.5134</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>59952.97957</v>
+        <v>21814.18893</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>79811.62208</v>
+        <v>38285.14834000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>81709.11472</v>
+        <v>0.18018</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>54205.991</v>
+        <v>781.7552900000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>42366.06321</v>
+        <v>19282.60638</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>56043.19356</v>
+        <v>438.05532</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>265355.71516</v>
+        <v>139318.73322</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>368956.3636999999</v>
+        <v>46.07735</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>860721.93587</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>9833.665209999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2531.732</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>193244.85002</v>
+        <v>115673.24856</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>87915.32592</v>
+        <v>30441.73714</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>125382.5337</v>
+        <v>51051.34304</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>153136.98312</v>
+        <v>79957.37733</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>140630.55396</v>
+        <v>51835.33699</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>207503.78427</v>
+        <v>109136.70037</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>235606.66314</v>
+        <v>155583.63992</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>355510.4905</v>
+        <v>207072.0704</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>381840.49504</v>
+        <v>178326.65297</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1015157.5529</v>
+        <v>471416.1829399999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1983548.22675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1579958.63023</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2407919.088</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>722.56513</v>
+        <v>0</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1973.80125</v>
+        <v>1537</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>510.4046700000001</v>
+        <v>166.16372</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2193.18708</v>
+        <v>1564.56781</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>2569.58676</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5026.58794</v>
+        <v>5137.37903</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>952.90347</v>
+        <v>706.05116</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>800.83739</v>
+        <v>256.83777</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2342.51896</v>
+        <v>42.10542</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>9253.964309999999</v>
+        <v>1.575</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>17014.59099</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>12545.73815</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>14630.1459</v>
+        <v>6065.13034</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>9070.841119999999</v>
+        <v>5661.18599</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>14950.89695</v>
+        <v>10140.27761</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>14516.93864</v>
+        <v>10206.96658</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>18662.18562</v>
+        <v>11639.76387</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>22601.5476</v>
+        <v>12665.71911</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>17469.27182</v>
+        <v>10904.92741</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>29950.44680000001</v>
+        <v>20081.1173</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>77840.77847</v>
+        <v>20688.08148</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>72355.7968</v>
+        <v>12049.28448</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>95982.10464999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>22538.82801</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>9980.913</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>21387.18641</v>
+        <v>20616.67282</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>7920.42534</v>
+        <v>327.9691</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>19825.13627</v>
+        <v>6580.75765</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>7618.637320000001</v>
+        <v>524.86877</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>384466.36125</v>
+        <v>1737.72417</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>259663.09704</v>
+        <v>183942.04417</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>318262.91535</v>
+        <v>222632.43953</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>161883.84388</v>
+        <v>135607.70405</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>49272.88457</v>
+        <v>15359.11569</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>70409.8998</v>
+        <v>31747.23506</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>282305.0684099999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5136.277940000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>215586.707</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>844970.17265</v>
+        <v>634838.4214399999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>941213.0423</v>
+        <v>623738.11995</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1027578.45598</v>
+        <v>516856.1045599999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1027185.394</v>
+        <v>634405.7217400001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1477266.80748</v>
+        <v>734497.8619199999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1994084.43749</v>
+        <v>1144270.45129</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2852642.37382</v>
+        <v>1557527.07176</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3146985.42624</v>
+        <v>1294452.79808</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3553162.15029</v>
+        <v>2389213.39102</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>12188082.48726</v>
+        <v>3840331.75394</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9094980.309969999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5953611.80989</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>6336070.13</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>647.2468</v>
+        <v>641.0776500000001</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>183.88047</v>
+        <v>105.00641</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>125.09459</v>
+        <v>10.44207</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>13.99732</v>
+        <v>5.25145</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>53.70408999999999</v>
+        <v>6.55121</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>17.43086</v>
+        <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>40125.29798999999</v>
+        <v>40123.10647999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>73173.41517000001</v>
+        <v>73166.58117</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>55689.63641</v>
+        <v>3.83518</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>14690.33694</v>
+        <v>2391.26575</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>11601.83482</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>10919.92024</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2239.55215</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>3037.37876</v>
+        <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0</v>
@@ -2096,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>121.53478</v>
+        <v>46.45976</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>102.30287</v>
+        <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>345.42171</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>145948.2089</v>
+        <v>118207.26508</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>98655.99601</v>
+        <v>55632.35999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>114388.82012</v>
+        <v>55145.5606</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>156476.07928</v>
+        <v>81672.00931000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>109887.30779</v>
+        <v>38051.9444</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>152969.8965</v>
+        <v>60089.93071</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>220591.70036</v>
+        <v>151622.53585</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>179348.32057</v>
+        <v>131166.3375</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>301493.78977</v>
+        <v>214944.4082</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>754228.2997900001</v>
+        <v>99538.74665999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>807921.9971799999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>250236.0961</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>554061.714</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1247474.56637</v>
+        <v>1055220.84339</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>864257.78614</v>
+        <v>564497.5083099999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1548760.53934</v>
+        <v>905386.06635</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>966145.49586</v>
+        <v>588318.5917400001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2450590.14918</v>
+        <v>1290716.32317</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1964048.98397</v>
+        <v>1167810.12968</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3664399.48626</v>
+        <v>2284836.39234</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5330539.03089</v>
+        <v>2612715.48953</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6306004.07683</v>
+        <v>4168184.68036</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>18904994.69679</v>
+        <v>6077843.628939999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>13276508.19414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8759851.080099998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>23368471.151</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2215.71747</v>
+        <v>642.20023</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2844.87508</v>
+        <v>724.28302</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>617.5910799999999</v>
+        <v>319.99471</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2511.99217</v>
+        <v>1061.14764</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1213.87899</v>
+        <v>1043.95234</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7369.632890000001</v>
+        <v>6489.120339999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>142.02709</v>
+        <v>585.86522</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>891.33898</v>
+        <v>517.59487</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4701.0157</v>
+        <v>1282.0362</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4368.12558</v>
+        <v>726.70344</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6585.756369999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>108.20131</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>192.394</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>35333.36443</v>
+        <v>27438.7061</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>25331.37817</v>
+        <v>17644.85238</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>69773.88879</v>
+        <v>63673.92099</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>39441.14464</v>
+        <v>26146.1981</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>52747.88857</v>
+        <v>30036.15493</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>60455.19991</v>
+        <v>38851.427</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>43842.01206</v>
+        <v>23797.68455</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>110033.19038</v>
+        <v>67909.39008</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>114146.387</v>
+        <v>56101.37576</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>80695.95389</v>
+        <v>35868.82708</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>133935.32663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>61645.20059</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>26449.016</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>7385.33017</v>
+        <v>7189.82249</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1803.72377</v>
+        <v>10.35983</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>8316.92913</v>
+        <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>5666.718370000001</v>
+        <v>1753.69079</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>8259.99899</v>
+        <v>1611.7227</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>43458.45174</v>
+        <v>15074.63772</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>16014.20661</v>
+        <v>6255.025900000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>15767.54943</v>
+        <v>8907.218010000002</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>9880.56004</v>
+        <v>471.45063</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>85353.81697999999</v>
+        <v>10356.51322</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>16426.83609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>942.67608</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2851.592</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1154695.66779</v>
+        <v>974986.6747</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>787451.1274999999</v>
+        <v>505275.29761</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1291870.00897</v>
+        <v>792898.20701</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>826202.6204200001</v>
+        <v>515045.40915</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2328991.55699</v>
+        <v>1224674.96057</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1775057.55774</v>
+        <v>1057206.89853</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3438496.51559</v>
+        <v>2117106.866</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4957643.80349</v>
+        <v>2396928.92317</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5962152.63792</v>
+        <v>3977012.05563</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>18502371.97997</v>
+        <v>5935531.51055</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>12604724.53481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>8308493.365040001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>15697677.708</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>743.41347</v>
+        <v>737.40212</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>98.45585999999999</v>
+        <v>19.04535</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>95.52625</v>
+        <v>5.330109999999999</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>6.95132</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>134.86257</v>
+        <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>4319.12751</v>
+        <v>1386.60462</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>42817.62446</v>
+        <v>40629.51041</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>72715.67203</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>54399.53369</v>
+        <v>4.49865</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>10445.12897</v>
+        <v>126.93</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>9139.372170000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>8669.44227</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>27.512</v>
@@ -2405,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0.69008</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>47073.56104</v>
+        <v>44198.52575</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>46728.22576</v>
+        <v>40823.67012</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>178086.59512</v>
+        <v>48488.61353</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>92316.06894</v>
+        <v>44305.19473999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>59241.27299</v>
+        <v>33349.53263</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>73389.01418</v>
+        <v>48801.44147000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>123087.10045</v>
+        <v>96461.44026</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>173487.47658</v>
+        <v>65736.69137</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>160723.94248</v>
+        <v>133313.26349</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>221759.6914</v>
+        <v>95233.14465</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>505696.36807</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>379992.19481</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>7641300.441</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>491707.06727</v>
+        <v>309874.36382</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>456622.01666</v>
+        <v>227006.78897</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>815593.10214</v>
+        <v>481763.53215</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>734366.91072</v>
+        <v>530249.57114</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1314544.10255</v>
+        <v>827480.94572</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1330083.13326</v>
+        <v>795775.33133</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1788800.20741</v>
+        <v>1201610.97993</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2187405.56498</v>
+        <v>1256521.39438</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2694291.00711</v>
+        <v>1711695.12108</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7292355.2845</v>
+        <v>3351488.3145</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7236773.89814</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4193309.45144</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6573129.96</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>244641.1704</v>
+        <v>119782.62703</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>263664.51056</v>
+        <v>88390.26293</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>493932.35527</v>
+        <v>253953.37675</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>472092.4077</v>
+        <v>325770.65138</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>642479.0074999999</v>
+        <v>361687.68722</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>658882.1095999999</v>
+        <v>354748.96076</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>762110.77354</v>
+        <v>437483.6764699999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1100485.07097</v>
+        <v>515548.38269</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1601658.61837</v>
+        <v>899388.02749</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4829280.534039999</v>
+        <v>2118798.26779</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5075195.85885</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3215089.7638</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4369013.376</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>247065.89687</v>
+        <v>190091.73679</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>192957.5061</v>
+        <v>138616.52604</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>321660.74687</v>
+        <v>227810.1554</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>262274.50302</v>
+        <v>204478.91976</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>672065.09505</v>
+        <v>465793.2585</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>671201.0236600001</v>
+        <v>441026.37057</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1026689.43387</v>
+        <v>764127.3034600001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1086920.49401</v>
+        <v>740973.0116900001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1092632.38874</v>
+        <v>812307.0935900001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2463074.75046</v>
+        <v>1232690.04671</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2161578.03929</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>978219.68764</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2204116.584</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>79835.07528</v>
+        <v>84300.16958</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>489554.1025600001</v>
+        <v>462348.54382</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>42490.39565000001</v>
+        <v>206718.05702</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>966244.3305899999</v>
+        <v>817975.4674</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>165616.6195</v>
+        <v>-64515.59475</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1712833.69904</v>
+        <v>1314250.44988</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>606425.0041200002</v>
+        <v>546505.15972</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-364663.13994</v>
+        <v>316660.2915</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-367779.46275</v>
+        <v>224867.76763</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-6972032.624740001</v>
+        <v>-2874027.33358</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-1555875.09196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-1732765.81324</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-16822490.915</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>85225.71434000001</v>
+        <v>44551.76214</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>40869.59885</v>
+        <v>20162.59869</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>55833.69727</v>
+        <v>44459.76938000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>233211.79822</v>
+        <v>185960.70726</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>285646.28565</v>
+        <v>239360.515</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>166430.99337</v>
+        <v>30485.45502</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>309201.88017</v>
+        <v>124588.34961</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>371863.72246</v>
+        <v>194766.05638</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>352381.00251</v>
+        <v>112028.59116</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>908004.2711</v>
+        <v>126126.89838</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>639490.97595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>88159.27157000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>68260.315</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>16236.11936</v>
+        <v>2168.42429</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1796.17919</v>
+        <v>580.01744</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>21923.58185</v>
+        <v>21274.23177</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2294.49911</v>
+        <v>1049.96599</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2203.54885</v>
+        <v>1128.27245</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>19348.81209</v>
+        <v>11206.89038</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>15298.79044</v>
+        <v>13551.85006</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3828.11463</v>
+        <v>1335.1997</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>16938.4804</v>
+        <v>2188.38769</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4215.52109</v>
+        <v>1880.08903</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5115.2955</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2750.73421</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5645.137</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>68989.59497999999</v>
+        <v>42383.33785</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>39073.41966</v>
+        <v>19582.58125</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>33910.11542</v>
+        <v>23185.53761</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>230917.29911</v>
+        <v>184910.74127</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>283442.7368</v>
+        <v>238232.24255</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>147082.18128</v>
+        <v>19278.56464</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>293903.08973</v>
+        <v>111036.49955</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>368035.60783</v>
+        <v>193430.85668</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>335442.52211</v>
+        <v>109840.20347</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>903788.75001</v>
+        <v>124246.80935</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>634375.6804500001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>85408.53736</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>62615.178</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>75105.10742999999</v>
+        <v>39946.78741</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>51118.43713</v>
+        <v>34282.49185</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>244154.03597</v>
+        <v>121550.64418</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>166107.10855</v>
+        <v>112772.57586</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>180154.47341</v>
+        <v>106215.35326</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>272340.25706</v>
+        <v>122005.55873</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>219320.22343</v>
+        <v>65230.71272</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>363281.8198</v>
+        <v>187956.73311</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>981266.77076</v>
+        <v>260473.90423</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>750215.0446899999</v>
+        <v>258956.36076</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>591019.3125499999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>96097.18966000002</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>52031.966</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>8612.241310000001</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>3514.39613</v>
+        <v>9.70425</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>6938.02427</v>
+        <v>5661.51216</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>5762.58062</v>
+        <v>4676.11498</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>11660.81252</v>
+        <v>28.06407</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5399.986110000001</v>
+        <v>3660.62163</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7524.270689999999</v>
+        <v>4379.65909</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>16144.37612</v>
+        <v>13720.75772</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>13494.97816</v>
+        <v>9428.09966</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6373.88965</v>
+        <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>380.7377</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1.259</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2816.01378</v>
+        <v>2358.28326</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3048.03085</v>
+        <v>1211.49958</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>8704.74417</v>
+        <v>8118.7045</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>7857.34382</v>
+        <v>6298.62065</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3488.1713</v>
+        <v>2617.77827</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9261.1005</v>
+        <v>5203.38545</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4283.27158</v>
+        <v>1637.83129</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>31670.70616</v>
+        <v>2689.75104</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>10671.19334</v>
+        <v>5547.644240000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>227112.78603</v>
+        <v>185150.40112</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>27166.59414</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>13465.47549</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>15045.787</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>63676.85234</v>
+        <v>37588.50414999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>44556.01015000001</v>
+        <v>33061.28802</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>228511.26753</v>
+        <v>107770.42752</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>152487.18411</v>
+        <v>101797.84023</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>165005.48959</v>
+        <v>103569.51092</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>257679.17045</v>
+        <v>113141.55165</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>207512.68116</v>
+        <v>59213.22233999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>315466.73752</v>
+        <v>171546.22435</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>957100.59926</v>
+        <v>245498.16033</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>516728.36901</v>
+        <v>73805.95964</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>563471.98071</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>82631.71417000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>36984.92</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>89955.68218999999</v>
+        <v>88905.14431</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>479305.26428</v>
+        <v>448228.65066</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-145829.94305</v>
+        <v>129627.18222</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1033349.02026</v>
+        <v>891163.5988</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>271108.43174</v>
+        <v>68629.56698999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1606924.43535</v>
+        <v>1222730.34617</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>696306.6608600001</v>
+        <v>605862.7966100001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-356081.2372800001</v>
+        <v>323469.61477</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-996665.231</v>
+        <v>76422.45456</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-6814243.398330001</v>
+        <v>-3006856.79596</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-1507403.42856</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1740703.73133</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-16806262.566</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>112396.2318</v>
+        <v>89191.01995999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>88591.31862999999</v>
+        <v>64435.82432</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>118637.68912</v>
+        <v>75452.37239</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>188087.97518</v>
+        <v>145546.29109</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>171554.77789</v>
+        <v>93416.98278000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>243560.82604</v>
+        <v>144343.86908</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>272467.44416</v>
+        <v>192285.61712</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>337958.3456400001</v>
+        <v>245731.07885</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>376368.10745</v>
+        <v>288962.10048</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>331401.09155</v>
+        <v>134844.88886</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>343762.2831</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>167881.27956</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>115097.228</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-22440.54961</v>
+        <v>-285.8756499999985</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>390713.94565</v>
+        <v>383792.82634</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-264467.63217</v>
+        <v>54174.80983</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>845261.04508</v>
+        <v>745617.3077100001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>99553.65385</v>
+        <v>-24787.41579</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1363363.60931</v>
+        <v>1078386.47709</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>423839.2167</v>
+        <v>413577.17949</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-694039.58292</v>
+        <v>77738.53591999998</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-1373033.33845</v>
+        <v>-212539.64592</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-7145644.48988</v>
+        <v>-3141701.68482</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1851165.71166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1908585.01089</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-16921359.794</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>257</v>
+        <v>52</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>287</v>
+        <v>53</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>427</v>
+        <v>95</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>